--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq_full/AR2_50_9_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq_full.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq_full/AR2_50_9_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq_full.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.05629308736242639</v>
+        <v>0.00863423648946369</v>
       </c>
       <c r="C2">
-        <v>1.12864044670977</v>
+        <v>1.081231980802479</v>
       </c>
       <c r="D2">
-        <v>6.004745060421825</v>
+        <v>8.112271609790723</v>
       </c>
       <c r="E2">
-        <v>2.450458132762489</v>
+        <v>2.848204980297367</v>
       </c>
       <c r="F2">
-        <v>2.477493815665918</v>
+        <v>2.87966458212119</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1777382440654325</v>
+        <v>0.1079425770541491</v>
       </c>
       <c r="C3">
-        <v>0.9148644977815096</v>
+        <v>1.025681875173506</v>
       </c>
       <c r="D3">
-        <v>4.513387086456614</v>
+        <v>5.546319209064285</v>
       </c>
       <c r="E3">
-        <v>2.124473366850386</v>
+        <v>2.355062463941092</v>
       </c>
       <c r="F3">
-        <v>2.141500413665336</v>
+        <v>2.379171181174347</v>
       </c>
       <c r="G3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05656182648378551</v>
+        <v>0.08673112263663806</v>
       </c>
       <c r="C4">
-        <v>0.9883203359502523</v>
+        <v>0.8989375388443066</v>
       </c>
       <c r="D4">
-        <v>5.320621240843889</v>
+        <v>4.47623325838249</v>
       </c>
       <c r="E4">
-        <v>2.306647186035153</v>
+        <v>2.115711052668225</v>
       </c>
       <c r="F4">
-        <v>2.333243940602431</v>
+        <v>2.138371923145345</v>
       </c>
       <c r="G4">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1797789728359991</v>
+        <v>0.1560044769001684</v>
       </c>
       <c r="C5">
-        <v>0.9943073049607287</v>
+        <v>0.9224880001651093</v>
       </c>
       <c r="D5">
-        <v>5.14197343459651</v>
+        <v>4.879102887750935</v>
       </c>
       <c r="E5">
-        <v>2.267591990327297</v>
+        <v>2.20886914228773</v>
       </c>
       <c r="F5">
-        <v>2.287854592705698</v>
+        <v>2.229429331798652</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1423332673825007</v>
+        <v>0.1600298176880285</v>
       </c>
       <c r="C6">
-        <v>0.9433768423612608</v>
+        <v>0.9424896015931804</v>
       </c>
       <c r="D6">
-        <v>4.703814649284991</v>
+        <v>4.916621931739378</v>
       </c>
       <c r="E6">
-        <v>2.168827943679487</v>
+        <v>2.217345695136277</v>
       </c>
       <c r="F6">
-        <v>2.191037377029028</v>
+        <v>2.238371143106592</v>
       </c>
       <c r="G6">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1921285734891055</v>
+        <v>0.1728584914046674</v>
       </c>
       <c r="C7">
-        <v>0.9863758557428663</v>
+        <v>0.9206488348686618</v>
       </c>
       <c r="D7">
-        <v>4.853141278068126</v>
+        <v>4.635874527679912</v>
       </c>
       <c r="E7">
-        <v>2.202984629557847</v>
+        <v>2.153108108683796</v>
       </c>
       <c r="F7">
-        <v>2.222548292415751</v>
+        <v>2.172819442882898</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1802104719592294</v>
+        <v>0.1929609596835913</v>
       </c>
       <c r="C8">
-        <v>0.968710560800258</v>
+        <v>0.9736223895218249</v>
       </c>
       <c r="D8">
-        <v>4.906199868271186</v>
+        <v>4.804027380007986</v>
       </c>
       <c r="E8">
-        <v>2.214994326916254</v>
+        <v>2.191809156840072</v>
       </c>
       <c r="F8">
-        <v>2.236510664009248</v>
+        <v>2.211112598008703</v>
       </c>
       <c r="G8">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2141425534045028</v>
+        <v>0.1960041159357992</v>
       </c>
       <c r="C9">
-        <v>1.001253769356722</v>
+        <v>0.9531248790116683</v>
       </c>
       <c r="D9">
-        <v>5.040488093741128</v>
+        <v>4.870747427708349</v>
       </c>
       <c r="E9">
-        <v>2.245103136548771</v>
+        <v>2.206976988486366</v>
       </c>
       <c r="F9">
-        <v>2.264866682439914</v>
+        <v>2.226992678098346</v>
       </c>
       <c r="G9">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.199921027802523</v>
+        <v>0.2155726075138289</v>
       </c>
       <c r="C10">
-        <v>0.9518218763303389</v>
+        <v>0.9906079526445191</v>
       </c>
       <c r="D10">
-        <v>5.060581100791618</v>
+        <v>5.010930836497054</v>
       </c>
       <c r="E10">
-        <v>2.249573537538086</v>
+        <v>2.238510852441206</v>
       </c>
       <c r="F10">
-        <v>2.271579658929601</v>
+        <v>2.258015469991629</v>
       </c>
       <c r="G10">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1414319054384104</v>
+        <v>0.2079488633544275</v>
       </c>
       <c r="C11">
-        <v>0.911413928476139</v>
+        <v>0.9496862135200643</v>
       </c>
       <c r="D11">
-        <v>4.995711005826868</v>
+        <v>5.054960332149459</v>
       </c>
       <c r="E11">
-        <v>2.235108723491291</v>
+        <v>2.248323893959555</v>
       </c>
       <c r="F11">
-        <v>2.262271227835509</v>
+        <v>2.269566474070086</v>
       </c>
       <c r="G11">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
